--- a/fuentes/contenidos/grado08/guion05/esqueletoGuion_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/esqueletoGuion_CN_08_05_CO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="11760" tabRatio="729"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="11760" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="88">
   <si>
     <t>FICHA</t>
   </si>
@@ -1555,7 +1555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1565,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2425,11 +2425,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2660,16 +2658,12 @@
         <v>37</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -2679,34 +2673,43 @@
         <v>29</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -2715,13 +2718,11 @@
       <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="5"/>
@@ -2738,7 +2739,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2756,7 +2757,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2774,7 +2775,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2789,7 +2790,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>30</v>
@@ -2810,7 +2811,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2828,7 +2829,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2846,16 +2847,11 @@
         <v>41</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -2866,55 +2862,60 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
@@ -2923,13 +2924,11 @@
       <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -2942,16 +2941,16 @@
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2961,16 +2960,16 @@
       <c r="B27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2985,16 +2984,12 @@
         <v>45</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
@@ -3008,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -3027,15 +3022,15 @@
         <v>45</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,57 +3041,79 @@
         <v>43</v>
       </c>
       <c r="C31" s="19"/>
-      <c r="D31" s="20" t="s">
-        <v>37</v>
+      <c r="D31" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="21"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3118,11 +3135,8 @@
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>30</v>
+      <c r="C36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3132,11 +3146,14 @@
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>49</v>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3146,10 +3163,7 @@
       <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3161,7 +3175,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>30</v>
@@ -3175,10 +3189,10 @@
         <v>47</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3189,7 +3203,7 @@
         <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>30</v>
@@ -3203,16 +3217,10 @@
         <v>47</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,91 +3231,79 @@
         <v>47</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H47" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -3316,13 +3312,11 @@
       <c r="B48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="C48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
@@ -3337,19 +3331,15 @@
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -3360,91 +3350,117 @@
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="21"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I55" s="17" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" t="s">
-        <v>60</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3454,11 +3470,8 @@
       <c r="B56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>35</v>
+      <c r="C56" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>30</v>
@@ -3483,10 +3496,10 @@
         <v>58</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3497,10 +3510,16 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H59" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,16 +3530,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" t="s">
-        <v>63</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3531,79 +3544,52 @@
         <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>34</v>
+      <c r="D62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>34</v>
+      <c r="A63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>34</v>
+      <c r="A64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3611,13 +3597,19 @@
         <v>19</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s">
+        <v>63</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3625,12 +3617,140 @@
         <v>19</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion05/esqueletoGuion_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/esqueletoGuion_CN_08_05_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="79">
   <si>
     <t>FICHA</t>
   </si>
@@ -145,18 +145,12 @@
     <t>Practica</t>
   </si>
   <si>
-    <t>Los componentes del sistema reproductor humano</t>
-  </si>
-  <si>
     <t>La espermatogénesis</t>
   </si>
   <si>
     <t>La ovogénesis</t>
   </si>
   <si>
-    <t>Los gametos y la gametogénesis</t>
-  </si>
-  <si>
     <t>El ciclo reproductor femenino</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
   </si>
   <si>
     <t>El parto</t>
-  </si>
-  <si>
-    <t>La fecundación y el embarazo</t>
   </si>
   <si>
     <t>La reproducción asistida</t>
@@ -212,50 +203,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">La fertilización </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in vitro</t>
-    </r>
-  </si>
-  <si>
     <t>La sexualidad</t>
   </si>
   <si>
     <t>Los hábitos saludables en la sexualidad</t>
   </si>
   <si>
-    <t>Hábitos saludables en la sexualidad</t>
-  </si>
-  <si>
     <t>Las enfermedades de transmisión sexual (ETS)</t>
   </si>
   <si>
     <t>Los métodos de control de natalidad</t>
   </si>
   <si>
-    <t>Los métodos anticonceptivos y la prevención de ETS</t>
-  </si>
-  <si>
     <t>Competencias</t>
-  </si>
-  <si>
-    <t>Análisis de la gametogénesis</t>
-  </si>
-  <si>
-    <t>Identificación de alteraciones del ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Investigación acerca de los anticonceptivos y las ETS</t>
   </si>
   <si>
     <t>Fin de unidad</t>
@@ -1636,7 +1596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1672,19 +1634,19 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1698,19 +1660,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1718,19 +1680,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1738,19 +1700,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1758,19 +1720,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1778,19 +1740,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -1798,19 +1760,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -1818,19 +1780,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -1839,19 +1801,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>110</v>
@@ -1860,19 +1822,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>120</v>
@@ -1881,19 +1843,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -1902,19 +1864,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>140</v>
@@ -1922,19 +1884,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -1942,19 +1904,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>160</v>
@@ -1962,19 +1924,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>170</v>
@@ -1982,19 +1944,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>180</v>
@@ -2002,19 +1964,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>190</v>
@@ -2022,19 +1984,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -2056,7 +2018,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2152,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>34</v>
@@ -2201,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>34</v>
@@ -2212,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>34</v>
@@ -2234,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>34</v>
@@ -2256,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>34</v>
@@ -2267,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>34</v>
@@ -2278,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>34</v>
@@ -2289,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>34</v>
@@ -2300,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>34</v>
@@ -2311,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>34</v>
@@ -2322,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>34</v>
@@ -2333,7 +2295,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>34</v>
@@ -2344,7 +2306,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>34</v>
@@ -2355,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>34</v>
@@ -2366,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>34</v>
@@ -2377,7 +2339,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>34</v>
@@ -2427,7 +2389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2682,7 +2646,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>34</v>
@@ -2705,7 +2669,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>34</v>
@@ -2736,7 +2700,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>30</v>
@@ -2754,7 +2718,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>35</v>
@@ -2772,7 +2736,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>32</v>
@@ -2790,7 +2754,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>30</v>
@@ -2808,7 +2772,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>30</v>
@@ -2826,7 +2790,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>32</v>
@@ -2844,7 +2808,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>35</v>
@@ -2862,7 +2826,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>33</v>
@@ -2870,7 +2834,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>34</v>
@@ -2922,7 +2886,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>30</v>
@@ -2939,11 +2903,11 @@
         <v>19</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>30</v>
@@ -2958,11 +2922,11 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>30</v>
@@ -2977,11 +2941,11 @@
         <v>19</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>32</v>
@@ -2996,11 +2960,11 @@
         <v>19</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>30</v>
@@ -3015,11 +2979,11 @@
         <v>19</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>33</v>
@@ -3027,7 +2991,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>34</v>
@@ -3038,11 +3002,11 @@
         <v>19</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>35</v>
@@ -3057,11 +3021,11 @@
         <v>19</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>38</v>
@@ -3080,7 +3044,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="17" t="s">
@@ -3099,7 +3063,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
@@ -3111,7 +3075,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="21" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>34</v>
@@ -3122,7 +3086,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
@@ -3133,7 +3097,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
@@ -3144,13 +3108,13 @@
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>34</v>
@@ -3161,7 +3125,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>30</v>
@@ -3172,10 +3136,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>30</v>
@@ -3186,13 +3150,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3200,10 +3164,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>30</v>
@@ -3214,10 +3178,10 @@
         <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>30</v>
@@ -3228,10 +3192,10 @@
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>32</v>
@@ -3242,10 +3206,10 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>30</v>
@@ -3256,16 +3220,16 @@
         <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>34</v>
@@ -3276,7 +3240,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>37</v>
@@ -3290,7 +3254,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>37</v>
@@ -3299,7 +3263,7 @@
         <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>34</v>
@@ -3310,7 +3274,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>30</v>
@@ -3327,11 +3291,11 @@
         <v>19</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>30</v>
@@ -3346,11 +3310,11 @@
         <v>19</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>32</v>
@@ -3365,11 +3329,11 @@
         <v>19</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>30</v>
@@ -3384,11 +3348,11 @@
         <v>19</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>32</v>
@@ -3403,11 +3367,11 @@
         <v>19</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>38</v>
@@ -3415,7 +3379,7 @@
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="21" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>34</v>
@@ -3426,7 +3390,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20" t="s">
@@ -3445,7 +3409,7 @@
         <v>19</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="20" t="s">
@@ -3457,7 +3421,7 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="21" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>34</v>
@@ -3468,7 +3432,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>30</v>
@@ -3479,10 +3443,10 @@
         <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>30</v>
@@ -3493,10 +3457,10 @@
         <v>19</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>35</v>
@@ -3507,16 +3471,16 @@
         <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>34</v>
@@ -3527,10 +3491,10 @@
         <v>19</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>30</v>
@@ -3541,10 +3505,10 @@
         <v>19</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>35</v>
@@ -3555,10 +3519,10 @@
         <v>19</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>30</v>
@@ -3569,10 +3533,10 @@
         <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>32</v>
@@ -3583,10 +3547,10 @@
         <v>19</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>30</v>
@@ -3597,16 +3561,16 @@
         <v>19</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>34</v>
@@ -3617,7 +3581,7 @@
         <v>19</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>37</v>
@@ -3631,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>37</v>
@@ -3640,7 +3604,7 @@
         <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>34</v>
@@ -3651,7 +3615,7 @@
         <v>19</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>30</v>
@@ -3668,7 +3632,7 @@
         <v>19</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>38</v>
@@ -3678,7 +3642,7 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>34</v>
@@ -3689,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>38</v>
@@ -3699,7 +3663,7 @@
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>34</v>
@@ -3710,7 +3674,7 @@
         <v>19</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>38</v>
@@ -3720,7 +3684,7 @@
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>34</v>
@@ -3731,7 +3695,7 @@
         <v>19</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
@@ -3745,7 +3709,7 @@
         <v>19</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>28</v>

--- a/fuentes/contenidos/grado08/guion05/esqueletoGuion_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/esqueletoGuion_CN_08_05_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="11760" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="11760" tabRatio="729" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D8" sqref="D8:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,8 +2103,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
+    <sheetView topLeftCell="E38" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
